--- a/info/metricas/NN/TANH/NN7.xlsx
+++ b/info/metricas/NN/TANH/NN7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1919.798950195312</v>
+        <v>0.8103520069164396</v>
       </c>
       <c r="C2" t="n">
-        <v>72455.94955411005</v>
+        <v>70520.83286773377</v>
       </c>
       <c r="D2" t="n">
-        <v>178.7809737859046</v>
+        <v>176.913924819262</v>
       </c>
       <c r="E2" t="n">
-        <v>908922.470727539</v>
+        <v>105.633493347168</v>
       </c>
       <c r="F2" t="n">
-        <v>109.1387744140625</v>
+        <v>899430.3937811279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8075426183684815</v>
+        <v>1936.346557617188</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8075663277699887</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.8104946046730214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.199152103718638e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-79837.69590066161</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1944.655395507812</v>
+        <v>0.7840711290803446</v>
       </c>
       <c r="C3" t="n">
-        <v>81352.24421069441</v>
+        <v>75943.48080004779</v>
       </c>
       <c r="D3" t="n">
-        <v>182.4973469443813</v>
+        <v>179.8924768042395</v>
       </c>
       <c r="E3" t="n">
-        <v>927816.5118652345</v>
+        <v>108.66533203125</v>
       </c>
       <c r="F3" t="n">
-        <v>105.8052899169922</v>
+        <v>914573.3520727539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.783673250649793</v>
+        <v>1935.828247070312</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7837780839222834</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7841036357562416</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.383304153618267e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-100366.0369526808</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1926.36572265625</v>
+        <v>0.7881404349771898</v>
       </c>
       <c r="C4" t="n">
-        <v>75215.43341357031</v>
+        <v>75897.61577370639</v>
       </c>
       <c r="D4" t="n">
-        <v>180.7466534708955</v>
+        <v>176.9630814936628</v>
       </c>
       <c r="E4" t="n">
-        <v>918915.9862460328</v>
+        <v>102.8227215576171</v>
       </c>
       <c r="F4" t="n">
-        <v>111.4666711425781</v>
+        <v>899680.3063137816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8034704912339966</v>
+        <v>1938.873291015625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.803488458436399</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7883196608898688</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.023229647290701e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-83988.3997611056</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1938.546630859375</v>
+        <v>0.813172174775401</v>
       </c>
       <c r="C5" t="n">
-        <v>77088.78228697214</v>
+        <v>73669.18554046548</v>
       </c>
       <c r="D5" t="n">
-        <v>181.1002284670514</v>
+        <v>180.2716871473791</v>
       </c>
       <c r="E5" t="n">
-        <v>920713.5615264892</v>
+        <v>112.0462615966797</v>
       </c>
       <c r="F5" t="n">
-        <v>109.5896343994141</v>
+        <v>916501.2574572754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8022924602417243</v>
+        <v>1920.0478515625</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8023175620257494</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.8132852235426626</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.839720826412895e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-92268.78758832073</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1928.19580078125</v>
+        <v>0.7994390449925299</v>
       </c>
       <c r="C6" t="n">
-        <v>71201.41509144034</v>
+        <v>73636.37021618095</v>
       </c>
       <c r="D6" t="n">
-        <v>174.0142905841642</v>
+        <v>177.7000972631778</v>
       </c>
       <c r="E6" t="n">
-        <v>884514.6390393067</v>
+        <v>106.7418023681641</v>
       </c>
       <c r="F6" t="n">
-        <v>102.1851379394532</v>
+        <v>903249.5943887329</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8107787209774004</v>
+        <v>1923.408081054688</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8107887788407098</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7994405423301489</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.715312418298908e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-100892.6923953509</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1929.079223632812</v>
+        <v>0.8036734832575197</v>
       </c>
       <c r="C7" t="n">
-        <v>79183.7690921162</v>
+        <v>73246.41121998696</v>
       </c>
       <c r="D7" t="n">
-        <v>183.3117106837052</v>
+        <v>177.7283035202071</v>
       </c>
       <c r="E7" t="n">
-        <v>931773.4254052734</v>
+        <v>107.9432867431641</v>
       </c>
       <c r="F7" t="n">
-        <v>110.772490234375</v>
+        <v>903392.9667932129</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7952631636277117</v>
+        <v>1938.169677734375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7957882353202274</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.8049484576383741</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.351638969287346e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-96871.99286509636</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1922.368041992188</v>
+        <v>0.8017628986771195</v>
       </c>
       <c r="C8" t="n">
-        <v>69227.43945076941</v>
+        <v>75237.66388023035</v>
       </c>
       <c r="D8" t="n">
-        <v>173.0354702881268</v>
+        <v>177.0975603610438</v>
       </c>
       <c r="E8" t="n">
-        <v>879539.2954745484</v>
+        <v>102.1154705810547</v>
       </c>
       <c r="F8" t="n">
-        <v>102.5031274414063</v>
+        <v>900186.8993151856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7990482354048529</v>
+        <v>1921.640625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7993825472275484</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.8019202196221299</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.366946968865547e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-104686.9705326658</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1939.80517578125</v>
+        <v>0.807128559832355</v>
       </c>
       <c r="C9" t="n">
-        <v>75099.17027880999</v>
+        <v>72797.624795236</v>
       </c>
       <c r="D9" t="n">
-        <v>178.0937163243959</v>
+        <v>176.7792374208981</v>
       </c>
       <c r="E9" t="n">
-        <v>905250.3600769043</v>
+        <v>103.7075744628906</v>
       </c>
       <c r="F9" t="n">
-        <v>101.9649047851562</v>
+        <v>898568.8638104248</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7874745963213363</v>
+        <v>1931.965454101562</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7876764160868341</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.8071397135754396</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.181213965399722e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-98330.725639353</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1931.658813476562</v>
+        <v>0.7885000774703274</v>
       </c>
       <c r="C10" t="n">
-        <v>74367.1595346853</v>
+        <v>80043.64478754837</v>
       </c>
       <c r="D10" t="n">
-        <v>179.7497829940229</v>
+        <v>185.0421706512109</v>
       </c>
       <c r="E10" t="n">
-        <v>913668.1469586182</v>
+        <v>109.0498095703124</v>
       </c>
       <c r="F10" t="n">
-        <v>106.5541638183594</v>
+        <v>940569.3534201051</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7973985265962849</v>
+        <v>1936.200317382812</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7974037415275997</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.7885050065077519</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.240225515317026e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-100860.7306825285</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1891.616611328125</v>
+        <v>0.7927883012482575</v>
       </c>
       <c r="C11" t="n">
-        <v>71797.15593822456</v>
+        <v>75752.05318127388</v>
       </c>
       <c r="D11" t="n">
-        <v>177.8823389057923</v>
+        <v>179.3008601518984</v>
       </c>
       <c r="E11" t="n">
-        <v>904175.9286581421</v>
+        <v>105.5932794189453</v>
       </c>
       <c r="F11" t="n">
-        <v>108.7632330322266</v>
+        <v>911386.2721520996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8026144963045918</v>
+        <v>1937.407104492188</v>
       </c>
       <c r="H11" t="n">
-        <v>0.802701936573341</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7939812632471245</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.918331099147542e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-94227.97011377887</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH7</t>
         </is>
       </c>
     </row>
